--- a/設計書/画面遷移図.xlsx
+++ b/設計書/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\Git\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF982DC-CFDC-455A-A600-157EBC93BC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259477FA-F7BC-4EA9-A263-34BFEFE1CD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>作成者</t>
   </si>
@@ -90,6 +90,13 @@
     <t>HCSスポーツクラブ会員システム</t>
     <rPh sb="10" eb="12">
       <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玉木</t>
+    <rPh sb="0" eb="2">
+      <t>タマキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -365,6 +372,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,15 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,8 +1008,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
@@ -1019,8 +1026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1112520"/>
-          <a:ext cx="1363980" cy="540000"/>
+          <a:off x="768773" y="1103395"/>
+          <a:ext cx="3887894" cy="532944"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1257,9 +1264,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
+      <xdr:colOff>103481</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>47037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1277,14 +1284,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
           <a:endCxn id="12" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1443990" y="1652520"/>
-          <a:ext cx="2790" cy="503940"/>
+          <a:off x="1458148" y="1646296"/>
+          <a:ext cx="2179" cy="489280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1318,13 +1324,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>148080</xdr:rowOff>
+      <xdr:rowOff>146905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>50706</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1342,8 +1348,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="762001" y="1382520"/>
-          <a:ext cx="51435" cy="1996950"/>
+          <a:off x="768774" y="1369868"/>
+          <a:ext cx="51435" cy="1973431"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1710,16 +1716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95486</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76671</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>26905</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29460</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1734,7 +1740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2804819" y="1095775"/>
+          <a:off x="2447338" y="2459849"/>
           <a:ext cx="1794086" cy="532944"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1876,16 +1882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139284</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127048</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95486</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146904</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>131704</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107997</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1897,14 +1903,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="31" idx="1"/>
+          <a:endCxn id="31" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2146300" y="1362247"/>
-          <a:ext cx="658519" cy="7620"/>
+        <a:xfrm flipH="1">
+          <a:off x="3344381" y="1636889"/>
+          <a:ext cx="4656" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1932,71 +1937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>56447</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>127758</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>150521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>155974</xdr:colOff>
+      <xdr:colOff>159925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>179681</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D38254-6D0B-4400-8B72-D2010BBBEDCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="75" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4597779" y="1742819"/>
-          <a:ext cx="1346197" cy="607527"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>80720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>112888</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56447</xdr:rowOff>
+      <xdr:rowOff>37633</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2011,7 +1961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5160720" y="2144891"/>
+          <a:off x="4361091" y="2314225"/>
           <a:ext cx="1217501" cy="263408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2054,16 +2004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>74413</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>130858</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99531</xdr:rowOff>
+      <xdr:rowOff>184197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>36313</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150519</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>92758</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2078,7 +2028,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5154413" y="758050"/>
+          <a:off x="4872191" y="842716"/>
           <a:ext cx="469900" cy="239136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3027,15 +2977,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>68575</xdr:colOff>
+      <xdr:colOff>134427</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76660</xdr:rowOff>
+      <xdr:rowOff>86067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>160014</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>56532</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>173368</xdr:rowOff>
+      <xdr:rowOff>182775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3050,7 +3000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10397908" y="1111475"/>
+          <a:off x="10463760" y="1120882"/>
           <a:ext cx="1107439" cy="473004"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3110,13 +3060,13 @@
       <xdr:col>57</xdr:col>
       <xdr:colOff>156101</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>125014</xdr:rowOff>
+      <xdr:rowOff>132423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>68575</xdr:colOff>
+      <xdr:colOff>134427</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>132423</xdr:rowOff>
+      <xdr:rowOff>134421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3133,9 +3083,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9808101" y="1347977"/>
-          <a:ext cx="589807" cy="7409"/>
+        <a:xfrm>
+          <a:off x="9808101" y="1355386"/>
+          <a:ext cx="655659" cy="1998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3441,62 +3391,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>26905</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104892</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139794</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8215EA-C277-4531-A509-AC0335961504}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="32" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4598905" y="1362247"/>
-          <a:ext cx="924654" cy="510"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>30497</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -3769,6 +3663,184 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8091</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>155974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95DFB5E-85CD-4C5C-9FFF-A328C0AD19CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4241424" y="2719682"/>
+          <a:ext cx="1333217" cy="6639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>104892</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146904</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BFE3DD-A578-4215-9625-6273793F6084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4656667" y="1362757"/>
+          <a:ext cx="866892" cy="7110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104046</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F750C8-25F5-41EF-8B5A-76B7E83E5439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3528813" y="1851191"/>
+          <a:ext cx="469900" cy="239136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4085,7 +4157,7 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CP23" sqref="CP23"/>
+      <selection activeCell="BZ7" sqref="BZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4094,144 +4166,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="19" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="17" t="s">
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="17" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
       <c r="AO2" s="25">
         <v>44852</v>
       </c>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="25">
+        <v>44861</v>
+      </c>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -4946,11 +5022,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -4959,6 +5030,11 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/設計書/画面遷移図.xlsx
+++ b/設計書/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\Git\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259477FA-F7BC-4EA9-A263-34BFEFE1CD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E8723F-6D6A-4709-B5C8-213B5E96A0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,19 +372,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,7 +390,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1792,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員登録サブメニュー</a:t>
+            <a:t>会員管理サブメニュー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4156,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BZ7" sqref="BZ7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4166,148 +4166,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="22" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="21" t="s">
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="20" t="s">
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="21" t="s">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="20" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="25">
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="19">
         <v>44852</v>
       </c>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="20" t="s">
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="25">
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="19">
         <v>44861</v>
       </c>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -5022,6 +5022,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -5030,11 +5035,6 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
